--- a/Model/Exp4_autore/Basic Search Rule.xlsx
+++ b/Model/Exp4_autore/Basic Search Rule.xlsx
@@ -3,9 +3,9 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="20396"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9C67FE09-F786-4061-B898-D520C90E31A8}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{50029AFD-B2B7-4BE8-8067-912D18A439A5}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12648" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12648" activeTab="5" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="etc" sheetId="1" r:id="rId1"/>
@@ -32,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1287" uniqueCount="920">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1290" uniqueCount="923">
   <si>
     <t>File</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -2812,6 +2812,18 @@
   </si>
   <si>
     <t>/etc/rc.conf</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>/proc/rs_dev</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>/proc/vz</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>/boot/[a-z0-9]{10}</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -3142,7 +3154,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:D143"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A127" workbookViewId="0">
+    <sheetView topLeftCell="A127" workbookViewId="0">
       <selection activeCell="B143" sqref="B143"/>
     </sheetView>
   </sheetViews>
@@ -4950,10 +4962,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{78E1224E-91B9-4AED-BB4A-B1D4E4F8EC7F}">
-  <dimension ref="A1:D134"/>
+  <dimension ref="A1:D136"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="E8" sqref="E8"/>
+    <sheetView topLeftCell="A121" workbookViewId="0">
+      <selection activeCell="B136" sqref="B136"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.3"/>
@@ -6161,6 +6173,16 @@
       </c>
       <c r="B134" s="1" t="s">
         <v>361</v>
+      </c>
+    </row>
+    <row r="135" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="B135" s="1" t="s">
+        <v>920</v>
+      </c>
+    </row>
+    <row r="136" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="B136" s="1" t="s">
+        <v>921</v>
       </c>
     </row>
   </sheetData>
@@ -8323,8 +8345,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{12A133A2-1321-4376-83B3-582E87B6BD23}">
   <dimension ref="A1:D18"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="G19" sqref="G19"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B18" sqref="B18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.3"/>
@@ -8487,6 +8509,9 @@
     <row r="18" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A18" s="1" t="s">
         <v>789</v>
+      </c>
+      <c r="B18" s="1" t="s">
+        <v>922</v>
       </c>
     </row>
   </sheetData>
